--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE01B77-2E1F-4FB7-A930-5CA4321512C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AF64C-FAF9-458D-984A-9B2E9E7A5415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CityCode,FloorLowerLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CityCode = ,AND FloorLowerLimit &lt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -240,10 +236,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CityCode =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FloorLowerLimit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,6 +250,28 @@
   <si>
     <t>單位：新臺幣元/坪</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.磚、木、石、金屬構造
+2.加強磚造、鋼筋混凝土造
+3.鋼骨鋼筋混凝土造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode,Material,FloorLowerLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode = ,AND Material =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +533,15 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -863,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -887,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -912,7 +935,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="20" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -991,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>31</v>
@@ -1007,65 +1030,66 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="19">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11" s="19">
-        <v>16</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="19">
+        <v>16</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
       <c r="G12" s="19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,17 +1097,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="19">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
         <v>19</v>
@@ -1094,15 +1116,17 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="19">
+        <v>6</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
         <v>19</v>
@@ -1113,30 +1137,40 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="19">
+        <v>8</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6</v>
+      </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
@@ -1248,9 +1282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1277,21 +1311,21 @@
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AF64C-FAF9-458D-984A-9B2E9E7A5415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9718167-EEC9-4C79-8DC5-CF17F61D4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -266,12 +266,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CityCode,Material,FloorLowerLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CityCode = ,AND Material =</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VersionDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangwei 20220302 新增欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode,Material,FloorLowerLimit,VersionDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,20 +540,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -884,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -902,10 +914,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
@@ -917,8 +929,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -930,12 +942,12 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -943,10 +955,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -954,10 +966,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -965,10 +977,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -976,10 +988,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -1034,19 +1046,19 @@
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1096,19 +1108,21 @@
       <c r="A13" s="22">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>19</v>
+      <c r="B13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="22">
+        <v>8</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,17 +1130,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="19">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
         <v>19</v>
@@ -1137,49 +1149,61 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="19">
+        <v>6</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="19">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="19">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
@@ -1261,6 +1285,15 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1282,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -1322,7 +1355,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9718167-EEC9-4C79-8DC5-CF17F61D4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFB084-9053-4CBC-BE7A-AFC85FD36F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CityCode = ,AND FloorLowerLimit &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>建築造價參考檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -266,24 +262,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CityCode = ,AND Material =</t>
+    <t>VersionDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangwei 20220302 新增欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode,Material,FloorLowerLimit,VersionDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode = ,AND FloorLowerLimit &lt;= ,AND VersionDate =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>VersionDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiangwei 20220302 新增欄位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityCode,Material,FloorLowerLimit,VersionDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>CityCode = ,AND Material = ,AND VersionDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>31</v>
@@ -1047,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>34</v>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1067,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>34</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>35</v>
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>34</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1344,21 +1344,21 @@
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFB084-9053-4CBC-BE7A-AFC85FD36F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D20B6-F226-4E09-B7E2-5849363B51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   <si>
     <t>CityCode = ,AND Material = ,AND VersionDate =</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,9 +486,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,16 +495,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,9 +513,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -527,15 +521,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -576,9 +561,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -616,9 +601,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,26 +636,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,26 +671,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -898,402 +849,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="D9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17">
         <v>16</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="F12" s="17">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="B14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="22">
-        <v>2</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="19">
-        <v>16</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>5</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="22">
-        <v>8</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19">
-        <v>6</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>8</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1315,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1341,24 +1292,24 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
